--- a/First and second derivative table.xlsx
+++ b/First and second derivative table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0127eb9c91a9316/Documenten/GitHub/automatic-grapher/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjoer\OneDrive\Documenten\GitHub\automatic-grapher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{91493610-5C0D-4CAC-B428-CC6AFC99AB42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{F45629ED-953B-4AE6-A02D-58AE93C602CA}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{91493610-5C0D-4CAC-B428-CC6AFC99AB42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{E3192F80-2A53-4308-BE2C-CB60E2DF838C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{661F4FE6-620D-4F58-B8E3-785A1679572D}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="B3:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <f t="shared" ref="D6:D52" si="0">(B8+B6)/2</f>
+        <f t="shared" ref="D7:D51" si="0">(B8+B6)/2</f>
         <v>1.5</v>
       </c>
       <c r="E7" s="1">
@@ -513,11 +513,11 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <f t="shared" ref="F7:F52" si="1">(D9+D7)/2</f>
+        <f t="shared" ref="F8:F50" si="1">(D9+D7)/2</f>
         <v>2</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ref="G7:G50" si="2">((E9-E7)/(D9-D7))</f>
+        <f t="shared" ref="G8:G50" si="2">((E9-E7)/(D9-D7))</f>
         <v>-0.65999999999999925</v>
       </c>
     </row>
